--- a/Información_relacionada/Pendientes.xlsx
+++ b/Información_relacionada/Pendientes.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Ingenieria_Software\Información_relacionada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Información_relacionada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7E6637-60D2-44F0-A894-C014768BCA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B8A28-D82D-45C9-8B37-7B4AA541F473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A7145A7-2579-4EB2-9D8B-B9B6E83AB53F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A7145A7-2579-4EB2-9D8B-B9B6E83AB53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
   <si>
     <t>D. Casos de usos</t>
   </si>
@@ -84,18 +75,9 @@
     <t>consultar datos personales</t>
   </si>
   <si>
-    <t>revisar, si está (Datos)</t>
-  </si>
-  <si>
-    <t>revisar, si está (Consultas)</t>
-  </si>
-  <si>
     <t>modificar tablas maestras</t>
   </si>
   <si>
-    <t>no está, colocar</t>
-  </si>
-  <si>
     <t>está</t>
   </si>
   <si>
@@ -105,16 +87,10 @@
     <t>comprobante (pagos)</t>
   </si>
   <si>
-    <t>revisar, si está (Notifica)</t>
-  </si>
-  <si>
     <t>eventos</t>
   </si>
   <si>
     <t>norma</t>
-  </si>
-  <si>
-    <t>poner</t>
   </si>
   <si>
     <t>datos termicos</t>
@@ -139,10 +115,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,11 +197,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -240,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -539,24 +526,24 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -591,15 +578,15 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -610,16 +597,16 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="1"/>
@@ -630,27 +617,27 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -658,309 +645,309 @@
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -981,18 +968,18 @@
       <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>31</v>
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1013,13 +1000,13 @@
       <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
+      <c r="J14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -1027,8 +1014,8 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
@@ -1045,7 +1032,7 @@
       <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Información_relacionada/Pendientes.xlsx
+++ b/Información_relacionada/Pendientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Información_relacionada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Información_relacionada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B8A28-D82D-45C9-8B37-7B4AA541F473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB82DA4-5BB0-42BE-B8EA-B1E91921F02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A7145A7-2579-4EB2-9D8B-B9B6E83AB53F}"/>
+    <workbookView xWindow="1152" yWindow="2436" windowWidth="21348" windowHeight="8100" xr2:uid="{5A7145A7-2579-4EB2-9D8B-B9B6E83AB53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,9 +204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +523,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,8 +685,8 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -721,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -784,8 +781,8 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -817,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -849,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
@@ -880,8 +877,8 @@
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -913,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -979,8 +976,8 @@
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -1038,5 +1035,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>